--- a/pos/POS(김밥나라)/양식샘플-요구사항 정의서.xlsx
+++ b/pos/POS(김밥나라)/양식샘플-요구사항 정의서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\개발자 문서\700. 프로젝트 계획서 모음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Nodejs\pos\POS(김밥나라)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3F0ABF-2DD0-4FF2-8B14-1D4EF1840C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15780" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석" sheetId="27" r:id="rId1"/>
@@ -230,10 +229,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기획팀 / 홍길동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>시스템 연동사항</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -325,26 +320,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>방화벽 밖에 있는 웹서버와 안에 있는 DB서버와의 안정된 연결이 요구됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항정의 시점에서 고객의 요구가 수시로 변경되어 미결된 사항들이 너무 많음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 실무자들과의 정기적인 회의를 통해 상호 의견조율이 매우 절실함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>고객사의 웹스타일 가이드에 따른다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>방화벽 밖에 있는 웹서버와 안에 있는 DB서버와의 안정된 연결이 요구됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항정의 시점에서 고객의 요구가 수시로 변경되어 미결된 사항들이 너무 많음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사 실무자들과의 정기적인 회의를 통해 상호 의견조율이 매우 절실함</t>
+    <t>기획팀 / 고은결</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1290,13 +1289,163 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,161 +1465,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_서비스정의 계획" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준_서비스정의 계획" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1525,7 +1524,7 @@
         <xdr:cNvPr id="3" name="오른쪽 중괄호 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,23 +1642,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1695,23 +1677,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1887,12 +1852,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38:T38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1914,273 +1879,273 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="9" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:11" ht="9" customHeight="1">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="69"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="81" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="31">
+        <v>44438</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="31">
-        <v>44039</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="9" customHeight="1"/>
     <row r="7" spans="2:11">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="30" t="s">
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="K7" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
-      <c r="K7" s="29" t="s">
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="K8" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="30" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86"/>
-      <c r="K8" s="29" t="s">
+      <c r="H9" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="K9" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="87" t="s">
+    <row r="10" spans="2:11">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="K10" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="70"/>
-      <c r="K9" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="70" t="s">
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="K12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="K10" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="30" t="s">
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
-      <c r="K12" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="30" t="s">
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="86"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="72" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="89" t="s">
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="89" t="s">
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="71" t="s">
+      <c r="H16" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="82" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="82" t="s">
+      <c r="I17" s="53" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="82" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:20">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="42" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="50" t="s">
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="53" t="s">
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="49"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="66"/>
       <c r="O20" s="21" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2161,7 @@
       <c r="S20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="54"/>
+      <c r="T20" s="81"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="2">
@@ -2226,12 +2191,12 @@
       <c r="J21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="84"/>
       <c r="O21" s="16" t="s">
         <v>23</v>
       </c>
@@ -2264,9 +2229,9 @@
       <c r="K22" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="35"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="60"/>
       <c r="O22" s="17"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -2286,12 +2251,12 @@
       <c r="J23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="35"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
@@ -2311,10 +2276,10 @@
       <c r="J24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="35"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -2334,10 +2299,10 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="35"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -2355,10 +2320,10 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="35"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="60"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -2376,10 +2341,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -2397,10 +2362,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="35"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="60"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -2418,10 +2383,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="60"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -2439,10 +2404,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="35"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -2464,10 +2429,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="60"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -2485,10 +2450,10 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="35"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="60"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -2506,10 +2471,10 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="35"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="60"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -2527,10 +2492,10 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="35"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="60"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -2548,10 +2513,10 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="35"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="60"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -2569,10 +2534,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="35"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="60"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -2590,10 +2555,10 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="35"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="60"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
@@ -2612,21 +2577,21 @@
       <c r="G38" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="38"/>
+      <c r="H38" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="88"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="6"/>
@@ -2637,21 +2602,21 @@
       <c r="G39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="38"/>
+      <c r="H39" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="88"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="6"/>
@@ -2662,21 +2627,21 @@
       <c r="G40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="38"/>
+      <c r="H40" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="88"/>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="6"/>
@@ -2687,21 +2652,21 @@
       <c r="G41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="38"/>
+      <c r="H41" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="88"/>
     </row>
     <row r="42" spans="2:20" ht="17.25" thickBot="1">
       <c r="B42" s="11"/>
@@ -2710,22 +2675,57 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="41"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H19:H20"/>
@@ -2742,41 +2742,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B21:G42 G7:G13 H9:H10">

--- a/pos/POS(김밥나라)/양식샘플-요구사항 정의서.xlsx
+++ b/pos/POS(김밥나라)/양식샘플-요구사항 정의서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>기획팀 / 고은결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고객사가 목록리스트는 "드롭다운" 옵션을 선택해 값들을 선택한다"라고 먼저 정의함 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1195,7 +1199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1289,6 +1293,114 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,12 +1422,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1352,119 +1458,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1524,7 +1522,7 @@
         <xdr:cNvPr id="3" name="오른쪽 중괄호 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,8 +1854,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1879,46 +1877,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="9" customHeight="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:11" ht="9" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="68" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
       <c r="G5" s="31">
         <v>44438</v>
       </c>
@@ -1928,224 +1926,224 @@
     </row>
     <row r="6" spans="2:11" ht="9" customHeight="1"/>
     <row r="7" spans="2:11">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="66"/>
       <c r="K7" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
       <c r="K8" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="70" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="75"/>
       <c r="K9" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="39" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="75"/>
       <c r="K10" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="89"/>
       <c r="K12" s="29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="72" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="72" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="53" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="87" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="53" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="87" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:20">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="40" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="77" t="s">
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="80" t="s">
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="21" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +2159,7 @@
       <c r="S20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="81"/>
+      <c r="T20" s="46"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="2">
@@ -2191,12 +2189,12 @@
       <c r="J21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="82" t="s">
+      <c r="K21" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="16" t="s">
         <v>23</v>
       </c>
@@ -2226,12 +2224,12 @@
       <c r="J22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="58" t="s">
+      <c r="K22" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="17"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -2251,12 +2249,12 @@
       <c r="J23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
@@ -2276,10 +2274,10 @@
       <c r="J24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -2299,10 +2297,10 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -2320,10 +2318,10 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -2341,10 +2339,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -2362,10 +2360,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -2383,10 +2381,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -2404,10 +2402,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -2429,10 +2427,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -2450,10 +2448,10 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -2471,10 +2469,10 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -2492,10 +2490,10 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="60"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -2513,10 +2511,10 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="60"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -2534,10 +2532,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -2555,10 +2553,10 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
@@ -2577,21 +2575,21 @@
       <c r="G38" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="88"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="35"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="6"/>
@@ -2602,21 +2600,21 @@
       <c r="G39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="88"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="35"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="6"/>
@@ -2627,21 +2625,21 @@
       <c r="G40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="88"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="35"/>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="6"/>
@@ -2652,21 +2650,21 @@
       <c r="G41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="88"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="35"/>
     </row>
     <row r="42" spans="2:20" ht="17.25" thickBot="1">
       <c r="B42" s="11"/>
@@ -2675,55 +2673,22 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="91"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:N20"/>
     <mergeCell ref="B2:H3"/>
@@ -2740,8 +2705,41 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B21:G42 G7:G13 H9:H10">
